--- a/boat/JonBoatMaintenanceLog.xlsx
+++ b/boat/JonBoatMaintenanceLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\BoatsTruck\JonBoat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\boat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>ran motor/cleaned out water outflow/secured trailer light wires</t>
+  </si>
+  <si>
+    <t>idled rough/would die at idle and fast accelerating</t>
+  </si>
+  <si>
+    <t>ran mote with new gas and ring seal shock treatment</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,6 +836,34 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43480</v>
+      </c>
+      <c r="B17">
+        <v>140</v>
+      </c>
+      <c r="X17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43503</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" t="s">
+        <v>52</v>
+      </c>
+      <c r="U18" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/boat/JonBoatMaintenanceLog.xlsx
+++ b/boat/JonBoatMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -179,10 +179,13 @@
     <t>idled rough/would die at idle and fast accelerating</t>
   </si>
   <si>
-    <t>ran mote with new gas and ring seal shock treatment</t>
-  </si>
-  <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>ran motor with new gas and ring seal shock treatment</t>
+  </si>
+  <si>
+    <t>ran motor</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,13 +858,21 @@
         <v>31</v>
       </c>
       <c r="T18" t="s">
+        <v>51</v>
+      </c>
+      <c r="U18" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" t="s">
         <v>52</v>
       </c>
-      <c r="U18" t="s">
-        <v>24</v>
-      </c>
-      <c r="X18" t="s">
-        <v>51</v>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43525</v>
+      </c>
+      <c r="X19" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
